--- a/ig/sd-correction-slicing-condition/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/sd-correction-slicing-condition/ValueSet-eclaire-study-population-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Code de régulati" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Codes pour carac" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Caractérisation de la poulation Value Set</t>
+    <t>Caractérisation de la population Value Set</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T10:12:56+00:00</t>
+    <t>2023-10-19T14:17:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Caractérisation de la poulation Value Set.</t>
+    <t>Caractérisation de la population Value Set.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/sd-correction-slicing-condition/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/sd-correction-slicing-condition/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T14:17:53+00:00</t>
+    <t>2023-10-19T15:00:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
